--- a/artfynd/A 21629-2022.xlsx
+++ b/artfynd/A 21629-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56342678</v>
+        <v>56343314</v>
       </c>
       <c r="B2" t="n">
-        <v>96660</v>
+        <v>73693</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219880</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Aspvasslen, Dlr</t>
+          <t>Måmmyrbäcken, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>440925.4052724445</v>
+        <v>440676.7765765985</v>
       </c>
       <c r="R2" t="n">
-        <v>6818149.885173022</v>
+        <v>6818774.096066409</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2003-06-01</t>
+          <t>2004-06-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2003-08-31</t>
+          <t>2004-08-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56343314</v>
+        <v>56342678</v>
       </c>
       <c r="B3" t="n">
-        <v>73693</v>
+        <v>96660</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,38 +804,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>219880</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Måmmyrbäcken, Dlr</t>
+          <t>Aspvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>440676.7765765985</v>
+        <v>440925.4052724445</v>
       </c>
       <c r="R3" t="n">
-        <v>6818774.096066409</v>
+        <v>6818149.885173022</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2004-06-01</t>
+          <t>2003-06-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2004-08-31</t>
+          <t>2003-08-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">

--- a/artfynd/A 21629-2022.xlsx
+++ b/artfynd/A 21629-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56343314</v>
+        <v>56342678</v>
       </c>
       <c r="B2" t="n">
-        <v>73693</v>
+        <v>96660</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>219880</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Måmmyrbäcken, Dlr</t>
+          <t>Aspvasslen, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>440676.7765765985</v>
+        <v>440925.4052724445</v>
       </c>
       <c r="R2" t="n">
-        <v>6818774.096066409</v>
+        <v>6818149.885173022</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2004-06-01</t>
+          <t>2003-06-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2004-08-31</t>
+          <t>2003-08-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56342678</v>
+        <v>56343314</v>
       </c>
       <c r="B3" t="n">
-        <v>96660</v>
+        <v>73693</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,38 +804,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219880</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Aspvasslen, Dlr</t>
+          <t>Måmmyrbäcken, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>440925.4052724445</v>
+        <v>440676.7765765985</v>
       </c>
       <c r="R3" t="n">
-        <v>6818149.885173022</v>
+        <v>6818774.096066409</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2003-06-01</t>
+          <t>2004-06-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2003-08-31</t>
+          <t>2004-08-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
